--- a/DailyPricingAutomationTest/Repo/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Repo/i2o_TestReport_SU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\SeleniumWorkSpace\DailyPricingAutomationTest\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CB15C-275B-45FC-923F-EB4B6752B7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5F9CD-BC84-4AA3-9F70-521AD5E76D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestModules" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>Execution status</t>
   </si>
@@ -340,12 +340,6 @@
   </si>
   <si>
     <t>Test Name</t>
-  </si>
-  <si>
-    <t>07/19/2020 02:27:29</t>
-  </si>
-  <si>
-    <t>07/19/2020 03:02:04</t>
   </si>
   <si>
     <t>No</t>
@@ -1165,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,9 +1188,6 @@
         <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1205,9 +1196,6 @@
         <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1404,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D8EF67-462A-4E5D-A512-4E2A231438FF}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I101"/>
     </sheetView>
   </sheetViews>

--- a/DailyPricingAutomationTest/Repo/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Repo/i2o_TestReport_SU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5F9CD-BC84-4AA3-9F70-521AD5E76D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8096B11-9DBA-4F84-A4C7-A26920A0CD06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestModules" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
   <si>
     <t>Execution status</t>
   </si>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>Test Name</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1159,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1193,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D8EF67-462A-4E5D-A512-4E2A231438FF}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I101"/>
     </sheetView>
   </sheetViews>

--- a/DailyPricingAutomationTest/Repo/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Repo/i2o_TestReport_SU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8096B11-9DBA-4F84-A4C7-A26920A0CD06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40244B8B-2979-48DE-903D-ADC260D1A0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
